--- a/CVAWB.xlsx
+++ b/CVAWB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iaguero\Desktop\MANIFESTBOT\SAP TRAN.AIR MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A285D099-86D5-4D3F-84E4-8D31C3EF0366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D63B35-E036-45F2-BB0E-DEBC7652A68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>CV</t>
   </si>
@@ -88,7 +88,10 @@
     <t>'ALFA': '76272345-K', 'AGILITY': '76408000-9', 'ANDES': '76788050-2', 'A&amp;A': '78171100-4'</t>
   </si>
   <si>
-    <t>045-48691635</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>014-66934840</t>
   </si>
   <si>
     <t>HND</t>
@@ -97,62 +100,23 @@
     <t>ALFA</t>
   </si>
   <si>
-    <t>LATAM</t>
-  </si>
-  <si>
-    <t>SUNDAY 17 SEP</t>
-  </si>
-  <si>
-    <t>17.09.2023</t>
-  </si>
-  <si>
-    <t>LA512</t>
-  </si>
-  <si>
-    <t>TLV</t>
-  </si>
-  <si>
-    <t>ZCA064</t>
-  </si>
-  <si>
-    <t>76272345-K</t>
-  </si>
-  <si>
-    <t>&lt;ACTUALIZA</t>
-  </si>
-  <si>
-    <t>AV LAN</t>
-  </si>
-  <si>
-    <t>ZCA343</t>
-  </si>
-  <si>
-    <t>ANDES</t>
-  </si>
-  <si>
-    <t>76788050-2</t>
-  </si>
-  <si>
-    <t>KIX</t>
-  </si>
-  <si>
-    <t>ZCA074</t>
-  </si>
-  <si>
-    <t>A&amp;A</t>
-  </si>
-  <si>
-    <t>NRT</t>
-  </si>
-  <si>
-    <t>ZCA075</t>
+    <t>AIR CANADA</t>
+  </si>
+  <si>
+    <t>THURSDAY 12 OCT</t>
+  </si>
+  <si>
+    <t>12.10.2023</t>
+  </si>
+  <si>
+    <t>AC093/AC001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,14 +128,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,12 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,19 +472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="9" max="9" width="18.81640625" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,125 +545,46 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>38552</v>
+        <v>39712</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2">
-        <v>300007912</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
+        <v>300008034</v>
       </c>
       <c r="S2">
         <v>2023</v>
       </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>38551</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3">
-        <v>300007913</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="I7" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="I11" s="2"/>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>